--- a/Lab_3/Segway_files/Outputs/output2.xlsx
+++ b/Lab_3/Segway_files/Outputs/output2.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>785.6310369921239</v>
+        <v>9766.196729545341</v>
       </c>
       <c r="C2">
-        <v>275.648156438197</v>
+        <v>10347.44038058572</v>
       </c>
       <c r="D2">
-        <v>0.01000114096326525</v>
+        <v>-0.01334001273620269</v>
       </c>
       <c r="E2">
-        <v>-0.9949766647262575</v>
+        <v>0.02487383702159289</v>
       </c>
       <c r="F2">
-        <v>0.02877279654445</v>
+        <v>-0.9866135610437239</v>
       </c>
       <c r="G2">
-        <v>255</v>
+        <v>10000.0514</v>
       </c>
       <c r="H2">
-        <v>300.009374</v>
+        <v>9980.734</v>
       </c>
       <c r="I2">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,28 +438,28 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>715.0751748996826</v>
+        <v>10085.21455745542</v>
       </c>
       <c r="C3">
-        <v>299.8628497984144</v>
+        <v>9670.921204953383</v>
       </c>
       <c r="D3">
-        <v>-0.0008795732144284224</v>
+        <v>0.002534349525200652</v>
       </c>
       <c r="E3">
-        <v>-0.9872228790917864</v>
+        <v>0.01301100975767599</v>
       </c>
       <c r="F3">
-        <v>-0.00240654760572495</v>
+        <v>-1.001367825472981</v>
       </c>
       <c r="G3">
-        <v>255.6249998239519</v>
+        <v>10000.05533020038</v>
       </c>
       <c r="H3">
-        <v>300.009843105581</v>
+        <v>9974.459001230794</v>
       </c>
       <c r="I3">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -467,28 +467,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>766.2728747492822</v>
+        <v>9912.278082962224</v>
       </c>
       <c r="C4">
-        <v>296.5519818648763</v>
+        <v>10415.8823245702</v>
       </c>
       <c r="D4">
-        <v>0.00208637874772401</v>
+        <v>-0.008470423525979544</v>
       </c>
       <c r="E4">
-        <v>-0.9901031100088328</v>
+        <v>-0.002526219902601591</v>
       </c>
       <c r="F4">
-        <v>0.01362353312770813</v>
+        <v>-1.010677965304793</v>
       </c>
       <c r="G4">
-        <v>256.8749994718558</v>
+        <v>10000.06319060114</v>
       </c>
       <c r="H4">
-        <v>300.0107813167429</v>
+        <v>9961.909003692384</v>
       </c>
       <c r="I4">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -496,28 +496,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>736.9820962834181</v>
+        <v>9943.054753069224</v>
       </c>
       <c r="C5">
-        <v>293.4608291264586</v>
+        <v>10081.56451112402</v>
       </c>
       <c r="D5">
-        <v>-0.004397221349762594</v>
+        <v>0.01090749585157931</v>
       </c>
       <c r="E5">
-        <v>-0.9853846288185685</v>
+        <v>-0.002846516986163043</v>
       </c>
       <c r="F5">
-        <v>0.008724294075536055</v>
+        <v>-1.045991706470945</v>
       </c>
       <c r="G5">
-        <v>258.7499989437116</v>
+        <v>10000.07498120229</v>
       </c>
       <c r="H5">
-        <v>300.0121886334857</v>
+        <v>9943.084007384768</v>
       </c>
       <c r="I5">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,28 +525,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>758.120967321604</v>
+        <v>9974.82453298486</v>
       </c>
       <c r="C6">
-        <v>310.5765411135007</v>
+        <v>9742.125854692296</v>
       </c>
       <c r="D6">
-        <v>0.003023320445597288</v>
+        <v>0.001801740939275469</v>
       </c>
       <c r="E6">
-        <v>-1.025175699869662</v>
+        <v>0.0004856217214057226</v>
       </c>
       <c r="F6">
-        <v>0.01175718605747815</v>
+        <v>-1.019152481924776</v>
       </c>
       <c r="G6">
-        <v>261.2499982395194</v>
+        <v>10000.09070200381</v>
       </c>
       <c r="H6">
-        <v>300.0140650558096</v>
+        <v>9917.984012307948</v>
       </c>
       <c r="I6">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -554,28 +554,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>759.9707159141717</v>
+        <v>10042.43833616543</v>
       </c>
       <c r="C7">
-        <v>287.1548540280498</v>
+        <v>9671.235805495175</v>
       </c>
       <c r="D7">
-        <v>-0.003003948416722199</v>
+        <v>-0.009457416095782625</v>
       </c>
       <c r="E7">
-        <v>-0.993332307805897</v>
+        <v>0.02079596786119074</v>
       </c>
       <c r="F7">
-        <v>0.01246404666430208</v>
+        <v>-1.010449419379882</v>
       </c>
       <c r="G7">
-        <v>264.3749973592791</v>
+        <v>10000.11035300572</v>
       </c>
       <c r="H7">
-        <v>300.0164105837143</v>
+        <v>9886.609018461922</v>
       </c>
       <c r="I7">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -583,28 +583,28 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>740.3860784279792</v>
+        <v>9555.824007935511</v>
       </c>
       <c r="C8">
-        <v>319.0824039316892</v>
+        <v>10181.38881409197</v>
       </c>
       <c r="D8">
-        <v>0.001335527080147583</v>
+        <v>-0.001319697951427934</v>
       </c>
       <c r="E8">
-        <v>-0.9692108110434652</v>
+        <v>0.01933597623353321</v>
       </c>
       <c r="F8">
-        <v>0.0431855994336745</v>
+        <v>-1.041087357619672</v>
       </c>
       <c r="G8">
-        <v>268.1249963029907</v>
+        <v>10000.133934208</v>
       </c>
       <c r="H8">
-        <v>300.0192252172001</v>
+        <v>9848.959025846692</v>
       </c>
       <c r="I8">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -612,28 +612,28 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>744.8798797574292</v>
+        <v>9873.156618547635</v>
       </c>
       <c r="C9">
-        <v>335.1607988352475</v>
+        <v>10059.52075337627</v>
       </c>
       <c r="D9">
-        <v>0.005036461681970953</v>
+        <v>-0.002431520275886164</v>
       </c>
       <c r="E9">
-        <v>-1.007362716618882</v>
+        <v>0.01887458660896872</v>
       </c>
       <c r="F9">
-        <v>-0.009572116226769765</v>
+        <v>-0.9862369029113481</v>
       </c>
       <c r="G9">
-        <v>272.4999950706542</v>
+        <v>10000.16144561067</v>
       </c>
       <c r="H9">
-        <v>300.0225089562667</v>
+        <v>9805.034034462256</v>
       </c>
       <c r="I9">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -641,28 +641,28 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>753.5677926114752</v>
+        <v>9493.870525875102</v>
       </c>
       <c r="C10">
-        <v>337.2748686388394</v>
+        <v>9959.078636621151</v>
       </c>
       <c r="D10">
-        <v>0.0009783963478432029</v>
+        <v>0.0006212302340812063</v>
       </c>
       <c r="E10">
-        <v>-1.012308902994663</v>
+        <v>-0.001954087732938914</v>
       </c>
       <c r="F10">
-        <v>0.0104462270304563</v>
+        <v>-1.020427088395284</v>
       </c>
       <c r="G10">
-        <v>277.4999936622697</v>
+        <v>10000.19288721372</v>
       </c>
       <c r="H10">
-        <v>300.0262618009144</v>
+        <v>9754.834044308616</v>
       </c>
       <c r="I10">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -670,28 +670,28 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>719.822572334679</v>
+        <v>9345.035606907606</v>
       </c>
       <c r="C11">
-        <v>301.482799731442</v>
+        <v>9919.362267635785</v>
       </c>
       <c r="D11">
-        <v>0.009376051025692597</v>
+        <v>0.0001500893371572453</v>
       </c>
       <c r="E11">
-        <v>-0.9970368619228489</v>
+        <v>0.01645625559057489</v>
       </c>
       <c r="F11">
-        <v>-0.001782943895320766</v>
+        <v>-1.006981164701333</v>
       </c>
       <c r="G11">
-        <v>283.1249920778372</v>
+        <v>10000.22825901715</v>
       </c>
       <c r="H11">
-        <v>300.030483751143</v>
+        <v>9698.35905538577</v>
       </c>
       <c r="I11">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -699,28 +699,28 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>691.8867077579089</v>
+        <v>9732.326631755062</v>
       </c>
       <c r="C12">
-        <v>293.3127243033078</v>
+        <v>9978.243121763582</v>
       </c>
       <c r="D12">
-        <v>3.801913177774973e-05</v>
+        <v>-0.008132382273884213</v>
       </c>
       <c r="E12">
-        <v>-0.9898723786860543</v>
+        <v>0.003324245724044527</v>
       </c>
       <c r="F12">
-        <v>0.0101434167867204</v>
+        <v>-0.9787787426304151</v>
       </c>
       <c r="G12">
-        <v>289.3749903173565</v>
+        <v>10000.26756102096</v>
       </c>
       <c r="H12">
-        <v>300.0351748069525</v>
+        <v>9635.60906769372</v>
       </c>
       <c r="I12">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -728,28 +728,28 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>711.7295165396465</v>
+        <v>9409.89646521772</v>
       </c>
       <c r="C13">
-        <v>320.9123976709315</v>
+        <v>9846.701976244438</v>
       </c>
       <c r="D13">
-        <v>-0.001612799234602016</v>
+        <v>-0.008977501321457275</v>
       </c>
       <c r="E13">
-        <v>-1.010645936988927</v>
+        <v>-0.007380143890746727</v>
       </c>
       <c r="F13">
-        <v>0.01080510637052695</v>
+        <v>-0.9959666701133788</v>
       </c>
       <c r="G13">
-        <v>295.6249885568759</v>
+        <v>10000.30686302477</v>
       </c>
       <c r="H13">
-        <v>300.039865862762</v>
+        <v>9572.85908000167</v>
       </c>
       <c r="I13">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -757,28 +757,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>738.0403649371329</v>
+        <v>9163.627445983147</v>
       </c>
       <c r="C14">
-        <v>284.356362185167</v>
+        <v>10213.81433973794</v>
       </c>
       <c r="D14">
-        <v>-0.009477531512652754</v>
+        <v>0.009566697047581214</v>
       </c>
       <c r="E14">
-        <v>-0.99325710888235</v>
+        <v>-0.009704211181401183</v>
       </c>
       <c r="F14">
-        <v>-0.005737340432297675</v>
+        <v>-1.014373451701716</v>
       </c>
       <c r="G14">
-        <v>301.8749867963953</v>
+        <v>10000.34616502858</v>
       </c>
       <c r="H14">
-        <v>300.0445569185716</v>
+        <v>9510.10909230962</v>
       </c>
       <c r="I14">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -786,28 +786,28 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>704.2444537444352</v>
+        <v>9644.440823628764</v>
       </c>
       <c r="C15">
-        <v>304.4047034450713</v>
+        <v>10248.59941661888</v>
       </c>
       <c r="D15">
-        <v>0.01237781661682417</v>
+        <v>0.003307971911362684</v>
       </c>
       <c r="E15">
-        <v>-1.003926289522978</v>
+        <v>0.02573282597147736</v>
       </c>
       <c r="F15">
-        <v>0.007291250366448177</v>
+        <v>-0.9915948457657158</v>
       </c>
       <c r="G15">
-        <v>307.4999852119627</v>
+        <v>10000.381536832</v>
       </c>
       <c r="H15">
-        <v>300.0487788688002</v>
+        <v>9453.634103386774</v>
       </c>
       <c r="I15">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,28 +815,28 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>694.2438660898634</v>
+        <v>8989.786594441955</v>
       </c>
       <c r="C16">
-        <v>279.5232252328946</v>
+        <v>9837.012170439981</v>
       </c>
       <c r="D16">
-        <v>-0.006746710015045674</v>
+        <v>-0.004997401469731075</v>
       </c>
       <c r="E16">
-        <v>-0.9765807781077481</v>
+        <v>0.01182275056814894</v>
       </c>
       <c r="F16">
-        <v>-0.01434044628972107</v>
+        <v>-0.9766340207413597</v>
       </c>
       <c r="G16">
-        <v>312.4999838035782</v>
+        <v>10000.41297843505</v>
       </c>
       <c r="H16">
-        <v>300.0525317134478</v>
+        <v>9403.434113233134</v>
       </c>
       <c r="I16">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -844,28 +844,28 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>668.6427391043956</v>
+        <v>9228.147435967763</v>
       </c>
       <c r="C17">
-        <v>328.9415905435633</v>
+        <v>9913.184611294664</v>
       </c>
       <c r="D17">
-        <v>0.003784671283323433</v>
+        <v>0.000985063384830331</v>
       </c>
       <c r="E17">
-        <v>-1.000789669370179</v>
+        <v>0.00920643012392329</v>
       </c>
       <c r="F17">
-        <v>-0.04383805781995776</v>
+        <v>-1.002298467450769</v>
       </c>
       <c r="G17">
-        <v>316.8749825712418</v>
+        <v>10000.44048983772</v>
       </c>
       <c r="H17">
-        <v>300.0558154525145</v>
+        <v>9359.509121848698</v>
       </c>
       <c r="I17">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -873,28 +873,28 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>696.2234373644905</v>
+        <v>9367.333618100947</v>
       </c>
       <c r="C18">
-        <v>298.0929617834031</v>
+        <v>10164.67233077611</v>
       </c>
       <c r="D18">
-        <v>-0.0002528053739885018</v>
+        <v>-0.007553565080298864</v>
       </c>
       <c r="E18">
-        <v>-0.9667571961484261</v>
+        <v>0.01132804275016941</v>
       </c>
       <c r="F18">
-        <v>-0.01933185252920677</v>
+        <v>-1.011642872600987</v>
       </c>
       <c r="G18">
-        <v>320.6249815149534</v>
+        <v>10000.46407104001</v>
       </c>
       <c r="H18">
-        <v>300.0586300860002</v>
+        <v>9321.859129233468</v>
       </c>
       <c r="I18">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -902,28 +902,28 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>674.7227543307381</v>
+        <v>9107.923622948359</v>
       </c>
       <c r="C19">
-        <v>318.5982507692239</v>
+        <v>10052.61119269548</v>
       </c>
       <c r="D19">
-        <v>0.007683558696467434</v>
+        <v>0.00587153590535017</v>
       </c>
       <c r="E19">
-        <v>-0.9873100899149034</v>
+        <v>-0.01878156614826727</v>
       </c>
       <c r="F19">
-        <v>-0.01483557987072674</v>
+        <v>-1.018283963051235</v>
       </c>
       <c r="G19">
-        <v>323.7499806347131</v>
+        <v>10000.48372204191</v>
       </c>
       <c r="H19">
-        <v>300.060975613905</v>
+        <v>9290.484135387442</v>
       </c>
       <c r="I19">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -931,28 +931,28 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>647.6938300424882</v>
+        <v>8940.316575962373</v>
       </c>
       <c r="C20">
-        <v>317.8501216341351</v>
+        <v>9869.770442482777</v>
       </c>
       <c r="D20">
-        <v>-0.003629239718545026</v>
+        <v>-0.007385967889306636</v>
       </c>
       <c r="E20">
-        <v>-0.985063859595814</v>
+        <v>0.006602730070397277</v>
       </c>
       <c r="F20">
-        <v>-0.00509287395610465</v>
+        <v>-0.9860288629344015</v>
       </c>
       <c r="G20">
-        <v>326.2499799305209</v>
+        <v>10000.49944284343</v>
       </c>
       <c r="H20">
-        <v>300.0628520362288</v>
+        <v>9265.384140310622</v>
       </c>
       <c r="I20">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>691.512512589286</v>
+        <v>9082.272976596674</v>
       </c>
       <c r="C21">
-        <v>314.6068964178778</v>
+        <v>10113.75404239394</v>
       </c>
       <c r="D21">
-        <v>0.001997115341925064</v>
+        <v>-0.005602523622377309</v>
       </c>
       <c r="E21">
-        <v>-0.9740758128268022</v>
+        <v>-0.009631987421966075</v>
       </c>
       <c r="F21">
-        <v>-0.008940222505560393</v>
+        <v>-1.003553759037739</v>
       </c>
       <c r="G21">
-        <v>328.1249794023767</v>
+        <v>10000.51123344458</v>
       </c>
       <c r="H21">
-        <v>300.0642593529717</v>
+        <v>9246.559144003006</v>
       </c>
       <c r="I21">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -989,28 +989,28 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>688.8554349526671</v>
+        <v>9402.167012554226</v>
       </c>
       <c r="C22">
-        <v>292.6885292306703</v>
+        <v>9892.762702519745</v>
       </c>
       <c r="D22">
-        <v>0.004801778871457039</v>
+        <v>0.0001443435936380023</v>
       </c>
       <c r="E22">
-        <v>-1.012641499293456</v>
+        <v>0.01835292962047697</v>
       </c>
       <c r="F22">
-        <v>0.0351429498524818</v>
+        <v>-0.9871317833615287</v>
       </c>
       <c r="G22">
-        <v>329.3749790502805</v>
+        <v>10000.51909384534</v>
       </c>
       <c r="H22">
-        <v>300.0651975641336</v>
+        <v>9234.009146464596</v>
       </c>
       <c r="I22">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1018,28 +1018,28 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>687.5471315711233</v>
+        <v>9169.907727752528</v>
       </c>
       <c r="C23">
-        <v>307.2255374900648</v>
+        <v>9872.306413842627</v>
       </c>
       <c r="D23">
-        <v>-0.006237009322295499</v>
+        <v>0.003588520554588772</v>
       </c>
       <c r="E23">
-        <v>-1.023941811839943</v>
+        <v>0.005065139601014406</v>
       </c>
       <c r="F23">
-        <v>0.02034940126817163</v>
+        <v>-1.01746132302319</v>
       </c>
       <c r="G23">
-        <v>329.9999788742325</v>
+        <v>10000.52302404572</v>
       </c>
       <c r="H23">
-        <v>300.0656666697146</v>
+        <v>9227.73414769539</v>
       </c>
       <c r="I23">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>689.209547169144</v>
+        <v>9229.152273653266</v>
       </c>
       <c r="C24">
-        <v>285.2457598764449</v>
+        <v>9898.921132810559</v>
       </c>
       <c r="D24">
-        <v>-0.005020143490679431</v>
+        <v>9.632424514557528e-06</v>
       </c>
       <c r="E24">
-        <v>-1.016084018190719</v>
+        <v>0.004089997482941003</v>
       </c>
       <c r="F24">
-        <v>-0.00558065266331477</v>
+        <v>-0.9971166484482641</v>
       </c>
       <c r="G24">
-        <v>329.9999788742325</v>
+        <v>10000.52302404572</v>
       </c>
       <c r="H24">
-        <v>300.0656666697146</v>
+        <v>9227.73414769539</v>
       </c>
       <c r="I24">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1076,28 +1076,28 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>683.2404370074241</v>
+        <v>9153.558981400982</v>
       </c>
       <c r="C25">
-        <v>302.7697286146016</v>
+        <v>9726.304738370747</v>
       </c>
       <c r="D25">
-        <v>0.001335994777747565</v>
+        <v>0.0006431710423386325</v>
       </c>
       <c r="E25">
-        <v>-0.998580010010548</v>
+        <v>-0.01039909898168657</v>
       </c>
       <c r="F25">
-        <v>0.01475771604957446</v>
+        <v>-1.007440927891011</v>
       </c>
       <c r="G25">
-        <v>329.9999788742325</v>
+        <v>10000.52302404572</v>
       </c>
       <c r="H25">
-        <v>300.0656666697146</v>
+        <v>9227.73414769539</v>
       </c>
       <c r="I25">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1105,28 +1105,28 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>680.812926522036</v>
+        <v>9369.262305038481</v>
       </c>
       <c r="C26">
-        <v>291.5831736759476</v>
+        <v>10158.12921859373</v>
       </c>
       <c r="D26">
-        <v>-0.0002129764349182037</v>
+        <v>-0.007867343958550111</v>
       </c>
       <c r="E26">
-        <v>-0.9962971703885424</v>
+        <v>0.0245505254735425</v>
       </c>
       <c r="F26">
-        <v>0.0092904509123809</v>
+        <v>-0.9902537580588086</v>
       </c>
       <c r="G26">
-        <v>329.9999788742325</v>
+        <v>10000.52302404572</v>
       </c>
       <c r="H26">
-        <v>300.0656666697146</v>
+        <v>9227.73414769539</v>
       </c>
       <c r="I26">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1134,28 +1134,28 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>673.6936513699114</v>
+        <v>9152.315390381438</v>
       </c>
       <c r="C27">
-        <v>288.1557096376116</v>
+        <v>9999.196206612456</v>
       </c>
       <c r="D27">
-        <v>-0.002418037118913605</v>
+        <v>0.007922471104492006</v>
       </c>
       <c r="E27">
-        <v>-0.9941626108008375</v>
+        <v>-0.00806105394589901</v>
       </c>
       <c r="F27">
-        <v>-0.003086069724869499</v>
+        <v>-0.9984747516712286</v>
       </c>
       <c r="G27">
-        <v>333.1249779939922</v>
+        <v>10000.54267504763</v>
       </c>
       <c r="H27">
-        <v>300.0680121976193</v>
+        <v>9196.359153849364</v>
       </c>
       <c r="I27">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1163,28 +1163,28 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>658.5157357384707</v>
+        <v>9064.220614630558</v>
       </c>
       <c r="C28">
-        <v>290.2081345338828</v>
+        <v>10190.32046818841</v>
       </c>
       <c r="D28">
-        <v>0.004845865864577397</v>
+        <v>-0.002452721091142438</v>
       </c>
       <c r="E28">
-        <v>-0.9910139881363556</v>
+        <v>-0.03581134777379223</v>
       </c>
       <c r="F28">
-        <v>-0.02936173207027708</v>
+        <v>-1.026497859484359</v>
       </c>
       <c r="G28">
-        <v>339.3749762335115</v>
+        <v>10000.58197705144</v>
       </c>
       <c r="H28">
-        <v>300.0727032534289</v>
+        <v>9133.609166157314</v>
       </c>
       <c r="I28">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,28 +1192,28 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>625.1671100966728</v>
+        <v>9153.040468346571</v>
       </c>
       <c r="C29">
-        <v>277.9196304166684</v>
+        <v>9948.103044677066</v>
       </c>
       <c r="D29">
-        <v>0.003224753402266775</v>
+        <v>6.751387491960232e-05</v>
       </c>
       <c r="E29">
-        <v>-1.019902530843431</v>
+        <v>0.02028374838285544</v>
       </c>
       <c r="F29">
-        <v>-0.00578021197750631</v>
+        <v>-1.034287263088733</v>
       </c>
       <c r="G29">
-        <v>348.7499735927906</v>
+        <v>10000.64093005715</v>
       </c>
       <c r="H29">
-        <v>300.0797398371432</v>
+        <v>9039.484184619238</v>
       </c>
       <c r="I29">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1221,28 +1221,28 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>640.21686563597</v>
+        <v>8768.440644216962</v>
       </c>
       <c r="C30">
-        <v>287.2182253805325</v>
+        <v>10049.20379891399</v>
       </c>
       <c r="D30">
-        <v>-0.001807359988627077</v>
+        <v>0.002414075342666798</v>
       </c>
       <c r="E30">
-        <v>-1.01535182533187</v>
+        <v>-0.01141643699259749</v>
       </c>
       <c r="F30">
-        <v>0.01055632137680807</v>
+        <v>-0.9799837003273685</v>
       </c>
       <c r="G30">
-        <v>361.2499700718294</v>
+        <v>10000.71953406477</v>
       </c>
       <c r="H30">
-        <v>300.0891219487623</v>
+        <v>8913.984209235137</v>
       </c>
       <c r="I30">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1250,28 +1250,28 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>648.4185576928538</v>
+        <v>8887.851558463093</v>
       </c>
       <c r="C31">
-        <v>309.4697214446185</v>
+        <v>9632.203029592954</v>
       </c>
       <c r="D31">
-        <v>0.004551288026773689</v>
+        <v>0.002113968325649975</v>
       </c>
       <c r="E31">
-        <v>-1.006414561491017</v>
+        <v>-0.01926828070609325</v>
       </c>
       <c r="F31">
-        <v>0.01703429317673376</v>
+        <v>-0.9784873731343792</v>
       </c>
       <c r="G31">
-        <v>376.8749656706278</v>
+        <v>10000.8177890743</v>
       </c>
       <c r="H31">
-        <v>300.1008495882862</v>
+        <v>8757.109240005011</v>
       </c>
       <c r="I31">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1279,28 +1279,28 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>622.3289980144153</v>
+        <v>8913.887444750269</v>
       </c>
       <c r="C32">
-        <v>340.3808282199378</v>
+        <v>9828.516730986114</v>
       </c>
       <c r="D32">
-        <v>0.009968610155335393</v>
+        <v>0.005521268709842399</v>
       </c>
       <c r="E32">
-        <v>-1.015685364246725</v>
+        <v>0.01808399804777642</v>
       </c>
       <c r="F32">
-        <v>-0.009453613557852203</v>
+        <v>-0.9876839956692669</v>
       </c>
       <c r="G32">
-        <v>395.624960389186</v>
+        <v>10000.93569508573</v>
       </c>
       <c r="H32">
-        <v>300.1149227557148</v>
+        <v>8568.859276928859</v>
       </c>
       <c r="I32">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1308,28 +1308,28 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>591.6437298320606</v>
+        <v>8285.88572366086</v>
       </c>
       <c r="C33">
-        <v>289.7285478301835</v>
+        <v>10229.59081579601</v>
       </c>
       <c r="D33">
-        <v>-0.009664117821309296</v>
+        <v>-0.005697481699966428</v>
       </c>
       <c r="E33">
-        <v>-1.040245391694996</v>
+        <v>0.01773499774757338</v>
       </c>
       <c r="F33">
-        <v>-0.003417726638700516</v>
+        <v>-0.9589670609610144</v>
       </c>
       <c r="G33">
-        <v>417.4999542275038</v>
+        <v>10001.07325209906</v>
       </c>
       <c r="H33">
-        <v>300.1313414510482</v>
+        <v>8349.234320006683</v>
       </c>
       <c r="I33">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1337,28 +1337,28 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>560.8024559821005</v>
+        <v>8271.865919505071</v>
       </c>
       <c r="C34">
-        <v>310.2420561043997</v>
+        <v>9776.535350171613</v>
       </c>
       <c r="D34">
-        <v>0.003532237580467956</v>
+        <v>-0.0004035287294201763</v>
       </c>
       <c r="E34">
-        <v>-1.003577090557324</v>
+        <v>-0.01931401064609386</v>
       </c>
       <c r="F34">
-        <v>-0.04106472659771993</v>
+        <v>-0.9555053381930406</v>
       </c>
       <c r="G34">
-        <v>442.4999471855813</v>
+        <v>10001.2304601143</v>
       </c>
       <c r="H34">
-        <v>300.1501056742864</v>
+        <v>8098.23436923848</v>
       </c>
       <c r="I34">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1366,28 +1366,28 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>507.826869049979</v>
+        <v>7904.413796288076</v>
       </c>
       <c r="C35">
-        <v>300.7746722347094</v>
+        <v>10044.91847426829</v>
       </c>
       <c r="D35">
-        <v>-0.0008946505611006888</v>
+        <v>0.0002736786794890986</v>
       </c>
       <c r="E35">
-        <v>-1.013653313874507</v>
+        <v>-0.01194173690821601</v>
       </c>
       <c r="F35">
-        <v>-0.01226140311230673</v>
+        <v>-0.9994697790156661</v>
       </c>
       <c r="G35">
-        <v>470.6249392634186</v>
+        <v>10001.40731913145</v>
       </c>
       <c r="H35">
-        <v>300.1712154254294</v>
+        <v>7815.859424624253</v>
       </c>
       <c r="I35">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>504.6897206198092</v>
+        <v>7404.543976699264</v>
       </c>
       <c r="C36">
-        <v>302.5244184819476</v>
+        <v>10266.86875823126</v>
       </c>
       <c r="D36">
-        <v>-0.002905282196170731</v>
+        <v>-0.007737634314298685</v>
       </c>
       <c r="E36">
-        <v>-1.005220024034565</v>
+        <v>-0.02073274564197946</v>
       </c>
       <c r="F36">
-        <v>-0.01993955657194463</v>
+        <v>-1.019779227150065</v>
       </c>
       <c r="G36">
-        <v>501.8749304610155</v>
+        <v>10001.6038291505</v>
       </c>
       <c r="H36">
-        <v>300.1946707044771</v>
+        <v>7502.109486164</v>
       </c>
       <c r="I36">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>491.3470717503828</v>
+        <v>6982.941316356771</v>
       </c>
       <c r="C37">
-        <v>331.3160679333801</v>
+        <v>9844.447182407048</v>
       </c>
       <c r="D37">
-        <v>0.00652150003191317</v>
+        <v>-0.0040098129473982</v>
       </c>
       <c r="E37">
-        <v>-0.9852989926927381</v>
+        <v>0.003532057305099827</v>
       </c>
       <c r="F37">
-        <v>0.04520402148355389</v>
+        <v>-0.9952229230728334</v>
       </c>
       <c r="G37">
-        <v>533.1249216586124</v>
+        <v>10001.80033916955</v>
       </c>
       <c r="H37">
-        <v>300.2181259835248</v>
+        <v>7188.359547703748</v>
       </c>
       <c r="I37">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1453,28 +1453,28 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>440.7942590265527</v>
+        <v>7158.791518724729</v>
       </c>
       <c r="C38">
-        <v>298.8756108278005</v>
+        <v>10216.97512034673</v>
       </c>
       <c r="D38">
-        <v>0.003143725746660865</v>
+        <v>0.003572658910737705</v>
       </c>
       <c r="E38">
-        <v>-0.9720736943403177</v>
+        <v>-0.01033164277480072</v>
       </c>
       <c r="F38">
-        <v>-0.003570223782020183</v>
+        <v>-1.002302706295954</v>
       </c>
       <c r="G38">
-        <v>564.3749128562093</v>
+        <v>10001.9968491886</v>
       </c>
       <c r="H38">
-        <v>300.2415812625725</v>
+        <v>6874.609609243495</v>
       </c>
       <c r="I38">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1482,28 +1482,28 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>422.4996241299467</v>
+        <v>6557.747811791668</v>
       </c>
       <c r="C39">
-        <v>325.2069547585723</v>
+        <v>10067.10053888457</v>
       </c>
       <c r="D39">
-        <v>0.008483543764378194</v>
+        <v>-0.003135192931686987</v>
       </c>
       <c r="E39">
-        <v>-0.9873190042768071</v>
+        <v>-0.03928505745594126</v>
       </c>
       <c r="F39">
-        <v>0.0384435566892913</v>
+        <v>-1.017581850261949</v>
       </c>
       <c r="G39">
-        <v>592.4999049340465</v>
+        <v>10002.17370820574</v>
       </c>
       <c r="H39">
-        <v>300.2626910137154</v>
+        <v>6592.234664629268</v>
       </c>
       <c r="I39">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>381.1013619032394</v>
+        <v>6795.816495466656</v>
       </c>
       <c r="C40">
-        <v>292.4400897771164</v>
+        <v>9939.06528141775</v>
       </c>
       <c r="D40">
-        <v>-0.00427485503648347</v>
+        <v>0.003926969397614482</v>
       </c>
       <c r="E40">
-        <v>-0.999571178796375</v>
+        <v>0.01777198053520242</v>
       </c>
       <c r="F40">
-        <v>-0.02517365451785491</v>
+        <v>-0.993082447518948</v>
       </c>
       <c r="G40">
-        <v>617.4998978921241</v>
+        <v>10002.33091622098</v>
       </c>
       <c r="H40">
-        <v>300.2814552369536</v>
+        <v>6341.234713861066</v>
       </c>
       <c r="I40">
-        <v>0.000750569</v>
+        <v>-1.57017</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1540,57 +1540,57 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>338.0336705461942</v>
+        <v>6164.370180365417</v>
       </c>
       <c r="C41">
-        <v>304.7282890531213</v>
+        <v>9886.060063669916</v>
       </c>
       <c r="D41">
-        <v>-0.2793757848344748</v>
+        <v>-0.4776797397823191</v>
       </c>
       <c r="E41">
-        <v>-0.9742815854938319</v>
+        <v>0.05627668220620262</v>
       </c>
       <c r="F41">
-        <v>-0.04583138465015427</v>
+        <v>-0.9896765578219827</v>
       </c>
       <c r="G41">
-        <v>637.812392170562</v>
+        <v>10002.45864773336</v>
       </c>
       <c r="H41">
-        <v>300.2967011683346</v>
+        <v>6137.297253861901</v>
       </c>
       <c r="I41">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J41">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>361.7930333260484</v>
+        <v>5908.020479016194</v>
       </c>
       <c r="C42">
-        <v>291.6153232041785</v>
+        <v>9924.500806256441</v>
       </c>
       <c r="D42">
-        <v>0.006547286253261245</v>
+        <v>-0.004713825482295714</v>
       </c>
       <c r="E42">
-        <v>-0.9972490859896255</v>
+        <v>0.06101644615531355</v>
       </c>
       <c r="F42">
-        <v>-0.03351028034378905</v>
+        <v>-1.001970106550917</v>
       </c>
       <c r="G42">
-        <v>656.5515737745948</v>
+        <v>9991.438812338005</v>
       </c>
       <c r="H42">
-        <v>299.6598551813963</v>
+        <v>5949.370071879466</v>
       </c>
       <c r="I42">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1598,28 +1598,28 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>334.0545401416351</v>
+        <v>5555.236907955094</v>
       </c>
       <c r="C43">
-        <v>304.1198528671504</v>
+        <v>9998.617507445624</v>
       </c>
       <c r="D43">
-        <v>-0.009126233325575396</v>
+        <v>0.002634299453340025</v>
       </c>
       <c r="E43">
-        <v>-0.9793600984973327</v>
+        <v>0.0779644058651392</v>
       </c>
       <c r="F43">
-        <v>-0.0556631755141978</v>
+        <v>-0.9886113895034113</v>
       </c>
       <c r="G43">
-        <v>672.167558444622</v>
+        <v>9982.255616175207</v>
       </c>
       <c r="H43">
-        <v>299.129150192281</v>
+        <v>5792.764086894103</v>
       </c>
       <c r="I43">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -1627,28 +1627,28 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>309.0203985917569</v>
+        <v>6028.420062716657</v>
       </c>
       <c r="C44">
-        <v>294.8850545428918</v>
+        <v>9813.001567481204</v>
       </c>
       <c r="D44">
-        <v>-4.476854330095058e-05</v>
+        <v>0.0004829644099018799</v>
       </c>
       <c r="E44">
-        <v>-1.016499691969062</v>
+        <v>0.02119144914390071</v>
       </c>
       <c r="F44">
-        <v>-0.05436770757722095</v>
+        <v>-1.03020734587545</v>
       </c>
       <c r="G44">
-        <v>684.660346180644</v>
+        <v>9974.909059244968</v>
       </c>
       <c r="H44">
-        <v>298.7045862009887</v>
+        <v>5667.479298905813</v>
       </c>
       <c r="I44">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1656,28 +1656,28 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>307.8195819442051</v>
+        <v>5464.235248701568</v>
       </c>
       <c r="C45">
-        <v>306.5133156777523</v>
+        <v>10205.09847482791</v>
       </c>
       <c r="D45">
-        <v>0.002900381414242666</v>
+        <v>0.003319359172206832</v>
       </c>
       <c r="E45">
-        <v>-0.9916311925613163</v>
+        <v>0.06692112583050509</v>
       </c>
       <c r="F45">
-        <v>-0.01465179513646391</v>
+        <v>-0.9640629011154502</v>
       </c>
       <c r="G45">
-        <v>694.0299369826604</v>
+        <v>9969.39914154729</v>
       </c>
       <c r="H45">
-        <v>298.3861632075195</v>
+        <v>5573.515707914596</v>
       </c>
       <c r="I45">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -1685,28 +1685,28 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>304.9656422614498</v>
+        <v>5469.545522122166</v>
       </c>
       <c r="C46">
-        <v>322.9617367564605</v>
+        <v>9928.287154709447</v>
       </c>
       <c r="D46">
-        <v>0.001621143726623631</v>
+        <v>-0.003055123531655784</v>
       </c>
       <c r="E46">
-        <v>-0.9864371715153473</v>
+        <v>0.04948588695547508</v>
       </c>
       <c r="F46">
-        <v>-0.04362180892216749</v>
+        <v>-1.00715797044244</v>
       </c>
       <c r="G46">
-        <v>700.2763308506713</v>
+        <v>9965.725863082171</v>
       </c>
       <c r="H46">
-        <v>298.1738812118734</v>
+        <v>5510.873313920451</v>
       </c>
       <c r="I46">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1714,28 +1714,28 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>303.0374562306544</v>
+        <v>5686.348531308377</v>
       </c>
       <c r="C47">
-        <v>311.340141719601</v>
+        <v>9843.342897030172</v>
       </c>
       <c r="D47">
-        <v>-0.004985276740032598</v>
+        <v>-0.007676542905093124</v>
       </c>
       <c r="E47">
-        <v>-1.031513478145845</v>
+        <v>0.07297166113573579</v>
       </c>
       <c r="F47">
-        <v>-0.03386896919421148</v>
+        <v>-0.9958111295062255</v>
       </c>
       <c r="G47">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H47">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I47">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -1743,28 +1743,28 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>314.1063052326643</v>
+        <v>5601.099457731631</v>
       </c>
       <c r="C48">
-        <v>277.4756586034326</v>
+        <v>10273.9163923318</v>
       </c>
       <c r="D48">
-        <v>0.005018290497808728</v>
+        <v>-0.001154203321118957</v>
       </c>
       <c r="E48">
-        <v>-1.012773447876804</v>
+        <v>0.01161037684162414</v>
       </c>
       <c r="F48">
-        <v>-0.009665834274407387</v>
+        <v>-1.004132251698896</v>
       </c>
       <c r="G48">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H48">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I48">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1772,28 +1772,28 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>317.9011395679258</v>
+        <v>5589.855798170718</v>
       </c>
       <c r="C49">
-        <v>291.1267425363453</v>
+        <v>10506.1524437764</v>
       </c>
       <c r="D49">
-        <v>0.003599206370571625</v>
+        <v>-0.003023894500741519</v>
       </c>
       <c r="E49">
-        <v>-1.008063229405403</v>
+        <v>0.04102200815685948</v>
       </c>
       <c r="F49">
-        <v>-0.07614783525700811</v>
+        <v>-0.9869915523212746</v>
       </c>
       <c r="G49">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H49">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I49">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1801,28 +1801,28 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>271.2825345960449</v>
+        <v>5270.758086309191</v>
       </c>
       <c r="C50">
-        <v>347.1771273671617</v>
+        <v>9742.806592865945</v>
       </c>
       <c r="D50">
-        <v>-0.002700218646957803</v>
+        <v>-0.007290466009310645</v>
       </c>
       <c r="E50">
-        <v>-1.012059076781794</v>
+        <v>0.06624338996532152</v>
       </c>
       <c r="F50">
-        <v>-0.03808488932200291</v>
+        <v>-1.005110622811634</v>
       </c>
       <c r="G50">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H50">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I50">
-        <v>-0.03397165322222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1830,347 +1830,347 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>273.0890842206319</v>
+        <v>5977.654489741355</v>
       </c>
       <c r="C51">
-        <v>277.5733293019749</v>
+        <v>9885.239966666593</v>
       </c>
       <c r="D51">
-        <v>0.5535793632199205</v>
+        <v>0.9514067515130741</v>
       </c>
       <c r="E51">
-        <v>-1.005471751670973</v>
+        <v>-0.03297634655541302</v>
       </c>
       <c r="F51">
-        <v>0.02815079755098518</v>
+        <v>-1.011858014883031</v>
       </c>
       <c r="G51">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H51">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I51">
-        <v>0.03547279122222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J51">
-        <v>0.5555555555555556</v>
+        <v>0.9471698113207547</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>273.9101772202914</v>
+        <v>5626.945364214343</v>
       </c>
       <c r="C52">
-        <v>307.7536097458463</v>
+        <v>10242.04820287456</v>
       </c>
       <c r="D52">
-        <v>1.1121657034259</v>
+        <v>1.893706099178746</v>
       </c>
       <c r="E52">
-        <v>-0.9862443361868887</v>
+        <v>-0.2928184615722846</v>
       </c>
       <c r="F52">
-        <v>0.1741243400868912</v>
+        <v>-0.9455706184221991</v>
       </c>
       <c r="G52">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H52">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I52">
-        <v>0.1743616801111111</v>
+        <v>-1.274179433962265</v>
       </c>
       <c r="J52">
-        <v>1.111111111111111</v>
+        <v>1.894339622641509</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>302.1284751284086</v>
+        <v>6536.064737156951</v>
       </c>
       <c r="C53">
-        <v>370.7331211347189</v>
+        <v>8786.821607284379</v>
       </c>
       <c r="D53">
-        <v>1.664289460202262</v>
+        <v>2.840640254469647</v>
       </c>
       <c r="E53">
-        <v>-0.943688918730949</v>
+        <v>-0.5635370837450197</v>
       </c>
       <c r="F53">
-        <v>0.3833094010471606</v>
+        <v>-0.786210089283902</v>
       </c>
       <c r="G53">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H53">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I53">
-        <v>0.3826950134444445</v>
+        <v>-0.9189907547169816</v>
       </c>
       <c r="J53">
-        <v>1.666666666666667</v>
+        <v>2.841509433962264</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>400.4175137182335</v>
+        <v>11223.66208266637</v>
       </c>
       <c r="C54">
-        <v>385.1872106589054</v>
+        <v>6065.160124556815</v>
       </c>
       <c r="D54">
-        <v>2.222864714427338</v>
+        <v>3.792440555322506</v>
       </c>
       <c r="E54">
-        <v>-0.8021030731283761</v>
+        <v>-0.8896852627003328</v>
       </c>
       <c r="F54">
-        <v>0.6089071230180759</v>
+        <v>-0.4384927787972825</v>
       </c>
       <c r="G54">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H54">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I54">
-        <v>0.6604727912222222</v>
+        <v>-0.4454058490566042</v>
       </c>
       <c r="J54">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>509.8217799196753</v>
+        <v>10166.48219929954</v>
       </c>
       <c r="C55">
-        <v>398.7265618825223</v>
+        <v>5580.051553860693</v>
       </c>
       <c r="D55">
-        <v>2.216605748518786</v>
+        <v>3.790461152764212</v>
       </c>
       <c r="E55">
-        <v>-0.5911945094461485</v>
+        <v>-0.9846286895817926</v>
       </c>
       <c r="F55">
-        <v>0.7724140596539387</v>
+        <v>0.03744562129194559</v>
       </c>
       <c r="G55">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H55">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I55">
-        <v>0.938250569</v>
+        <v>0.02817905660377318</v>
       </c>
       <c r="J55">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>765.5359789403777</v>
+        <v>11423.20039752365</v>
       </c>
       <c r="C56">
-        <v>316.6153441286187</v>
+        <v>6284.33157063302</v>
       </c>
       <c r="D56">
-        <v>2.214547236081716</v>
+        <v>3.790857042877431</v>
       </c>
       <c r="E56">
-        <v>-0.3304722947523962</v>
+        <v>-0.8382819156693637</v>
       </c>
       <c r="F56">
-        <v>0.9526373858015276</v>
+        <v>0.5071354713108699</v>
       </c>
       <c r="G56">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H56">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I56">
-        <v>1.216028346777778</v>
+        <v>0.5017639622641505</v>
       </c>
       <c r="J56">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>709.8170935882001</v>
+        <v>17600.32080168396</v>
       </c>
       <c r="C57">
-        <v>277.6248447978074</v>
+        <v>9938.73580735181</v>
       </c>
       <c r="D57">
-        <v>2.216182471911939</v>
+        <v>3.783004187491622</v>
       </c>
       <c r="E57">
-        <v>-0.08072557740568004</v>
+        <v>-0.5838092650231341</v>
       </c>
       <c r="F57">
-        <v>1.027045555790028</v>
+        <v>0.8063131560068759</v>
       </c>
       <c r="G57">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H57">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I57">
-        <v>1.493806124555555</v>
+        <v>0.9753488679245279</v>
       </c>
       <c r="J57">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>713.952447250565</v>
+        <v>15022.35669372785</v>
       </c>
       <c r="C58">
-        <v>311.4467336618314</v>
+        <v>10043.35104014278</v>
       </c>
       <c r="D58">
-        <v>2.225007559147577</v>
+        <v>3.793830120015884</v>
       </c>
       <c r="E58">
-        <v>0.2098628880280199</v>
+        <v>-0.1527688076985081</v>
       </c>
       <c r="F58">
-        <v>0.9851543628316578</v>
+        <v>1.019439843698881</v>
       </c>
       <c r="G58">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H58">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I58">
-        <v>1.771583902333333</v>
+        <v>1.448933773584905</v>
       </c>
       <c r="J58">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>757.722758709911</v>
+        <v>14630.84985946607</v>
       </c>
       <c r="C59">
-        <v>296.8324925224399</v>
+        <v>10172.20646360956</v>
       </c>
       <c r="D59">
-        <v>1.655017980416332</v>
+        <v>2.84152232465239</v>
       </c>
       <c r="E59">
-        <v>0.4119185556966951</v>
+        <v>0.2389029368312549</v>
       </c>
       <c r="F59">
-        <v>0.9241089712352971</v>
+        <v>0.9879328939067644</v>
       </c>
       <c r="G59">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H59">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I59">
-        <v>1.979917235666666</v>
+        <v>1.804122452830188</v>
       </c>
       <c r="J59">
-        <v>1.666666666666667</v>
+        <v>2.841509433962264</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>844.5151860177916</v>
+        <v>16382.97844983457</v>
       </c>
       <c r="C60">
-        <v>384.2292278525385</v>
+        <v>11595.43862140854</v>
       </c>
       <c r="D60">
-        <v>1.11898709264654</v>
+        <v>1.891585341220254</v>
       </c>
       <c r="E60">
-        <v>0.5441649742089316</v>
+        <v>0.4338749484106914</v>
       </c>
       <c r="F60">
-        <v>0.8959382232680967</v>
+        <v>0.8620530346453099</v>
       </c>
       <c r="G60">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H60">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I60">
-        <v>2.118806124555555</v>
+        <v>2.040914905660377</v>
       </c>
       <c r="J60">
-        <v>1.111111111111111</v>
+        <v>1.894339622641509</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>866.0072136228089</v>
+        <v>17345.99339839763</v>
       </c>
       <c r="C61">
-        <v>353.454376481126</v>
+        <v>12383.57301925885</v>
       </c>
       <c r="D61">
-        <v>0.5555162226628325</v>
+        <v>0.9393469670797088</v>
       </c>
       <c r="E61">
-        <v>0.5801683926267184</v>
+        <v>0.57623329742615</v>
       </c>
       <c r="F61">
-        <v>0.8302089734178227</v>
+        <v>0.8497126165677197</v>
       </c>
       <c r="G61">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H61">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I61">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J61">
-        <v>0.5555555555555556</v>
+        <v>0.9471698113207547</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>853.85695662501</v>
+        <v>17530.60446182271</v>
       </c>
       <c r="C62">
-        <v>380.1777156156341</v>
+        <v>12346.00512213381</v>
       </c>
       <c r="D62">
-        <v>-0.005785793511142187</v>
+        <v>0.005326381960702488</v>
       </c>
       <c r="E62">
-        <v>0.5619543662450784</v>
+        <v>0.5749175777878803</v>
       </c>
       <c r="F62">
-        <v>0.8278946126992228</v>
+        <v>0.8338316143716936</v>
       </c>
       <c r="G62">
-        <v>703.3995277846768</v>
+        <v>9963.889223849612</v>
       </c>
       <c r="H62">
-        <v>298.0677402140504</v>
+        <v>5479.552116923378</v>
       </c>
       <c r="I62">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2178,28 +2178,28 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>862.3670183534415</v>
+        <v>17514.42104668804</v>
       </c>
       <c r="C63">
-        <v>406.2878118096183</v>
+        <v>12005.63688311132</v>
       </c>
       <c r="D63">
-        <v>0.005007203865510869</v>
+        <v>0.003198272867477732</v>
       </c>
       <c r="E63">
-        <v>0.5760793085270781</v>
+        <v>0.5469005153650954</v>
       </c>
       <c r="F63">
-        <v>0.7879398941876745</v>
+        <v>0.8438806819910865</v>
       </c>
       <c r="G63">
-        <v>699.7810193937969</v>
+        <v>9929.055048458955</v>
       </c>
       <c r="H63">
-        <v>303.163708917362</v>
+        <v>5531.74543761533</v>
       </c>
       <c r="I63">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2207,28 +2207,28 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>847.9792043319017</v>
+        <v>16957.07605191148</v>
       </c>
       <c r="C64">
-        <v>327.4640378772904</v>
+        <v>12105.10401456421</v>
       </c>
       <c r="D64">
-        <v>-0.003371844941830802</v>
+        <v>-0.01204068437145227</v>
       </c>
       <c r="E64">
-        <v>0.6064407056120688</v>
+        <v>0.5662550252776076</v>
       </c>
       <c r="F64">
-        <v>0.8422926495515221</v>
+        <v>0.8274502001936856</v>
       </c>
       <c r="G64">
-        <v>692.5440026120369</v>
+        <v>9859.386697677639</v>
       </c>
       <c r="H64">
-        <v>313.3556463239852</v>
+        <v>5636.132078999233</v>
       </c>
       <c r="I64">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2236,28 +2236,28 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>801.7769392213073</v>
+        <v>16929.70262467723</v>
       </c>
       <c r="C65">
-        <v>400.5173373415753</v>
+        <v>12445.36473591843</v>
       </c>
       <c r="D65">
-        <v>-0.0009221920128782244</v>
+        <v>-0.005216346553200564</v>
       </c>
       <c r="E65">
-        <v>0.5616565080288459</v>
+        <v>0.5350990843596917</v>
       </c>
       <c r="F65">
-        <v>0.7976443201967414</v>
+        <v>0.8390897078606296</v>
       </c>
       <c r="G65">
-        <v>681.688477439397</v>
+        <v>9754.884171505666</v>
       </c>
       <c r="H65">
-        <v>328.6435524339199</v>
+        <v>5792.712041075089</v>
       </c>
       <c r="I65">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2265,28 +2265,28 @@
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>790.472837044857</v>
+        <v>17032.54732305834</v>
       </c>
       <c r="C66">
-        <v>405.4577391010478</v>
+        <v>12237.18279832968</v>
       </c>
       <c r="D66">
-        <v>-0.001002317433850401</v>
+        <v>-0.001581734530016125</v>
       </c>
       <c r="E66">
-        <v>0.5828223180367172</v>
+        <v>0.5288692271196559</v>
       </c>
       <c r="F66">
-        <v>0.8536197117240656</v>
+        <v>0.8574734206513955</v>
       </c>
       <c r="G66">
-        <v>667.2144438758771</v>
+        <v>9615.547469943036</v>
       </c>
       <c r="H66">
-        <v>349.0274272471663</v>
+        <v>6001.485323842895</v>
       </c>
       <c r="I66">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2294,28 +2294,28 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>764.9598014113186</v>
+        <v>16598.07447544481</v>
       </c>
       <c r="C67">
-        <v>412.5059515103545</v>
+        <v>12672.73956773446</v>
       </c>
       <c r="D67">
-        <v>0.002647670459266513</v>
+        <v>0.001194979145184048</v>
       </c>
       <c r="E67">
-        <v>0.5910588535618718</v>
+        <v>0.5466978100134695</v>
       </c>
       <c r="F67">
-        <v>0.8208125813942544</v>
+        <v>0.8285614275964949</v>
       </c>
       <c r="G67">
-        <v>649.1219019214773</v>
+        <v>9441.376592989749</v>
       </c>
       <c r="H67">
-        <v>374.5072707637242</v>
+        <v>6262.451927302654</v>
       </c>
       <c r="I67">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2323,28 +2323,28 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>682.8810917185489</v>
+        <v>16436.82571411528</v>
       </c>
       <c r="C68">
-        <v>455.3642317523168</v>
+        <v>12724.69709145854</v>
       </c>
       <c r="D68">
-        <v>-0.0007612287685025152</v>
+        <v>0.0008046455129373897</v>
       </c>
       <c r="E68">
-        <v>0.5688555252521628</v>
+        <v>0.5312384139935863</v>
       </c>
       <c r="F68">
-        <v>0.8074987192361676</v>
+        <v>0.8392422349522571</v>
       </c>
       <c r="G68">
-        <v>627.4108515761974</v>
+        <v>9232.371540645803</v>
       </c>
       <c r="H68">
-        <v>405.0830829835937</v>
+        <v>6575.611851454363</v>
       </c>
       <c r="I68">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2352,28 +2352,28 @@
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>732.7623646814593</v>
+        <v>15332.33890006886</v>
       </c>
       <c r="C69">
-        <v>450.1262013828273</v>
+        <v>13233.57968347323</v>
       </c>
       <c r="D69">
-        <v>-0.0004484184939470004</v>
+        <v>0.002471402196445391</v>
       </c>
       <c r="E69">
-        <v>0.6055036039991142</v>
+        <v>0.5344854283130231</v>
       </c>
       <c r="F69">
-        <v>0.8007765959845525</v>
+        <v>0.8191581657300117</v>
       </c>
       <c r="G69">
-        <v>602.0812928400376</v>
+        <v>8988.5323129112</v>
       </c>
       <c r="H69">
-        <v>440.7548639067749</v>
+        <v>6940.965096298025</v>
       </c>
       <c r="I69">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2381,28 +2381,28 @@
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>616.7544388835802</v>
+        <v>15237.92098191403</v>
       </c>
       <c r="C70">
-        <v>511.4941093673782</v>
+        <v>13462.03702778127</v>
       </c>
       <c r="D70">
-        <v>0.00119441534610489</v>
+        <v>0.003602226175908973</v>
       </c>
       <c r="E70">
-        <v>0.5846563917434858</v>
+        <v>0.5464479013294343</v>
       </c>
       <c r="F70">
-        <v>0.822099421992454</v>
+        <v>0.7930416902626523</v>
       </c>
       <c r="G70">
-        <v>573.1332257129977</v>
+        <v>8709.85890978594</v>
       </c>
       <c r="H70">
-        <v>481.5226135332675</v>
+        <v>7358.511661833638</v>
       </c>
       <c r="I70">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2410,28 +2410,28 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>562.5552379565628</v>
+        <v>14535.4704127338</v>
       </c>
       <c r="C71">
-        <v>564.5017855565582</v>
+        <v>13881.9613384134</v>
       </c>
       <c r="D71">
-        <v>0.002340327378339882</v>
+        <v>0.0008029516645223379</v>
       </c>
       <c r="E71">
-        <v>0.5715250335967245</v>
+        <v>0.5745619738828144</v>
       </c>
       <c r="F71">
-        <v>0.8148137423649678</v>
+        <v>0.8253987757054918</v>
       </c>
       <c r="G71">
-        <v>540.566650195078</v>
+        <v>8396.351331270022</v>
       </c>
       <c r="H71">
-        <v>527.3863318630719</v>
+        <v>7828.251548061203</v>
       </c>
       <c r="I71">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -2439,28 +2439,28 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>535.4375473744719</v>
+        <v>14379.44185466333</v>
       </c>
       <c r="C72">
-        <v>575.5332565996788</v>
+        <v>14372.21691553335</v>
       </c>
       <c r="D72">
-        <v>0.002839563336800249</v>
+        <v>-0.001238553246759279</v>
       </c>
       <c r="E72">
-        <v>0.5810038408764595</v>
+        <v>0.5703702705992001</v>
       </c>
       <c r="F72">
-        <v>0.843812959471677</v>
+        <v>0.8378912825314689</v>
       </c>
       <c r="G72">
-        <v>504.3815662862781</v>
+        <v>8048.009577363446</v>
       </c>
       <c r="H72">
-        <v>578.3460188961877</v>
+        <v>8350.184754980719</v>
       </c>
       <c r="I72">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2468,28 +2468,28 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>483.6305721902057</v>
+        <v>13517.26856636178</v>
       </c>
       <c r="C73">
-        <v>597.4836112835076</v>
+        <v>14953.54773305562</v>
       </c>
       <c r="D73">
-        <v>-0.001388716526626939</v>
+        <v>-0.0142031893684787</v>
       </c>
       <c r="E73">
-        <v>0.5445708647486415</v>
+        <v>0.5663087480344519</v>
       </c>
       <c r="F73">
-        <v>0.846539402553351</v>
+        <v>0.8466446873425704</v>
       </c>
       <c r="G73">
-        <v>468.1964823774783</v>
+        <v>7699.66782345687</v>
       </c>
       <c r="H73">
-        <v>629.3057059293036</v>
+        <v>8872.117961900236</v>
       </c>
       <c r="I73">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2497,28 +2497,28 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>390.3167247329628</v>
+        <v>12520.70656741998</v>
       </c>
       <c r="C74">
-        <v>565.7386613017808</v>
+        <v>15413.97954547446</v>
       </c>
       <c r="D74">
-        <v>0.002525691077639541</v>
+        <v>-0.004230344428234487</v>
       </c>
       <c r="E74">
-        <v>0.5953764481758762</v>
+        <v>0.5703453780629489</v>
       </c>
       <c r="F74">
-        <v>0.8177864412446642</v>
+        <v>0.824883296500425</v>
       </c>
       <c r="G74">
-        <v>432.0113984686785</v>
+        <v>7351.326069550294</v>
       </c>
       <c r="H74">
-        <v>680.2653929624195</v>
+        <v>9394.051168819753</v>
       </c>
       <c r="I74">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2526,28 +2526,28 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>340.281157569041</v>
+        <v>11986.77744164202</v>
       </c>
       <c r="C75">
-        <v>459.804999016498</v>
+        <v>15148.83232579626</v>
       </c>
       <c r="D75">
-        <v>-0.002406623246477735</v>
+        <v>0.004864059411125866</v>
       </c>
       <c r="E75">
-        <v>0.5803364917344422</v>
+        <v>0.5290608881632427</v>
       </c>
       <c r="F75">
-        <v>0.813995181868567</v>
+        <v>0.8148240600256645</v>
       </c>
       <c r="G75">
-        <v>399.4448229507587</v>
+        <v>7037.818491034376</v>
       </c>
       <c r="H75">
-        <v>726.1291112922238</v>
+        <v>9863.791055047317</v>
       </c>
       <c r="I75">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -2555,28 +2555,28 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>267.7568522437867</v>
+        <v>11422.15317591551</v>
       </c>
       <c r="C76">
-        <v>371.9556235888519</v>
+        <v>16109.77899792933</v>
       </c>
       <c r="D76">
-        <v>-0.005946690574201983</v>
+        <v>-0.003545313100787753</v>
       </c>
       <c r="E76">
-        <v>0.5708914035501881</v>
+        <v>0.5065770950197737</v>
       </c>
       <c r="F76">
-        <v>0.8165283818968386</v>
+        <v>0.8424790129590323</v>
       </c>
       <c r="G76">
-        <v>370.4967558237188</v>
+        <v>6759.145087909115</v>
       </c>
       <c r="H76">
-        <v>766.8968609187165</v>
+        <v>10281.33762058293</v>
       </c>
       <c r="I76">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2584,28 +2584,28 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>243.0887849406723</v>
+        <v>11272.44115559979</v>
       </c>
       <c r="C77">
-        <v>324.1187998556069</v>
+        <v>16039.39604273953</v>
       </c>
       <c r="D77">
-        <v>-0.001831792203662</v>
+        <v>-0.007778330705508979</v>
       </c>
       <c r="E77">
-        <v>0.5817867164315377</v>
+        <v>0.5589130091090954</v>
       </c>
       <c r="F77">
-        <v>0.7757787304708335</v>
+        <v>0.8597220015397586</v>
       </c>
       <c r="G77">
-        <v>345.167197087559</v>
+        <v>6515.305860174512</v>
       </c>
       <c r="H77">
-        <v>802.5686418418976</v>
+        <v>10646.69086542659</v>
       </c>
       <c r="I77">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -2613,28 +2613,28 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>178.0756413561533</v>
+        <v>11041.71026353776</v>
       </c>
       <c r="C78">
-        <v>268.5782084213022</v>
+        <v>16018.64225268357</v>
       </c>
       <c r="D78">
-        <v>0.004466562718167694</v>
+        <v>0.004649276448824354</v>
       </c>
       <c r="E78">
-        <v>0.5704454515997507</v>
+        <v>0.5451494690118714</v>
       </c>
       <c r="F78">
-        <v>0.8443289207421658</v>
+        <v>0.7973733503367388</v>
       </c>
       <c r="G78">
-        <v>323.4561467422791</v>
+        <v>6306.300807830567</v>
       </c>
       <c r="H78">
-        <v>833.1444540617671</v>
+        <v>10959.8507895783</v>
       </c>
       <c r="I78">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2642,28 +2642,28 @@
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>139.2339680860079</v>
+        <v>10381.53775385697</v>
       </c>
       <c r="C79">
-        <v>264.7770376462583</v>
+        <v>15705.42476536639</v>
       </c>
       <c r="D79">
-        <v>0.002802221243041406</v>
+        <v>0.002949072099323605</v>
       </c>
       <c r="E79">
-        <v>0.5551063583648796</v>
+        <v>0.5395771100292436</v>
       </c>
       <c r="F79">
-        <v>0.7824348673527388</v>
+        <v>0.824070669434517</v>
       </c>
       <c r="G79">
-        <v>305.3636047878792</v>
+        <v>6132.129930877279</v>
       </c>
       <c r="H79">
-        <v>858.624297578325</v>
+        <v>11220.81739303806</v>
       </c>
       <c r="I79">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -2671,28 +2671,28 @@
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>181.2451868768433</v>
+        <v>10062.26445862314</v>
       </c>
       <c r="C80">
-        <v>241.6768026469063</v>
+        <v>15120.57287649893</v>
       </c>
       <c r="D80">
-        <v>-0.00499586393270928</v>
+        <v>0.004910553162840613</v>
       </c>
       <c r="E80">
-        <v>0.5987259996080779</v>
+        <v>0.5321956847586771</v>
       </c>
       <c r="F80">
-        <v>0.8098866174427857</v>
+        <v>0.883078416423231</v>
       </c>
       <c r="G80">
-        <v>290.8895712243593</v>
+        <v>5992.793229314649</v>
       </c>
       <c r="H80">
-        <v>879.0081723915714</v>
+        <v>11429.59067580587</v>
       </c>
       <c r="I80">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>103.8476134199049</v>
+        <v>10034.92470201279</v>
       </c>
       <c r="C81">
-        <v>171.4998250203374</v>
+        <v>15380.87948030913</v>
       </c>
       <c r="D81">
-        <v>0.001299353898896964</v>
+        <v>0.0008584880924609347</v>
       </c>
       <c r="E81">
-        <v>0.5851430398817143</v>
+        <v>0.5584700397447456</v>
       </c>
       <c r="F81">
-        <v>0.8169211536581548</v>
+        <v>0.8174640606482362</v>
       </c>
       <c r="G81">
-        <v>280.0340460517193</v>
+        <v>5888.290703142676</v>
       </c>
       <c r="H81">
-        <v>894.2960785015061</v>
+        <v>11586.17063788172</v>
       </c>
       <c r="I81">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -2729,28 +2729,28 @@
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>118.9070494862131</v>
+        <v>9993.435334637838</v>
       </c>
       <c r="C82">
-        <v>199.5384529115016</v>
+        <v>14954.93965845592</v>
       </c>
       <c r="D82">
-        <v>0.0003516143378624494</v>
+        <v>-0.003644839972013558</v>
       </c>
       <c r="E82">
-        <v>0.5779324389784036</v>
+        <v>0.5613189698253644</v>
       </c>
       <c r="F82">
-        <v>0.8241985795639239</v>
+        <v>0.8527401580730183</v>
       </c>
       <c r="G82">
-        <v>272.7970292699594</v>
+        <v>5818.622352361361</v>
       </c>
       <c r="H82">
-        <v>904.4880159081293</v>
+        <v>11690.55727926563</v>
       </c>
       <c r="I82">
-        <v>2.188250569</v>
+        <v>2.159311132075471</v>
       </c>
       <c r="J82">
         <v>0</v>
